--- a/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/_Out/NFDataCfg/Excel/Group.xlsx
@@ -150,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -173,6 +173,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -184,13 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -199,40 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,10 +215,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,6 +245,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -277,14 +268,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,20 +300,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -348,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,54 +654,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +675,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -737,6 +687,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,153 +720,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,8 +1349,8 @@
   <sheetPr/>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,59 +1507,500 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:2">
+    <row r="3" s="7" customFormat="1" spans="1:23">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:2">
+    <row r="4" s="7" customFormat="1" spans="1:23">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:2">
+    <row r="5" s="7" customFormat="1" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:2">
+    <row r="6" s="7" customFormat="1" spans="1:23">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:2">
+    <row r="7" s="8" customFormat="1" spans="1:23">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
       </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:2">
+    <row r="8" s="8" customFormat="1" spans="1:23">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
       </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:2">
+    <row r="9" s="8" customFormat="1" spans="1:23">
       <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1580,7 +2021,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9 C7:C9 D7:D9 E7:E9 F7:F9 G7:G9 H7:H9 I7:I9 J7:J9 K7:K9 L7:L9 M7:M9 N7:N9 O7:O9 P7:P9 Q7:Q9 R7:R9 S7:S9 T7:T9 U7:U9 V7:V9 W7:W9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/_Out/NFDataCfg/Excel/Group.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>Id</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>group_1</t>
   </si>
   <si>
     <t>MatchMember</t>
@@ -150,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -178,14 +175,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,27 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -251,50 +235,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,12 +258,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -354,31 +351,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,49 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,79 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,21 +704,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -755,20 +737,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,134 +775,134 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,9 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1347,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2009,14 +2003,6 @@
         <v>34</v>
       </c>
       <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2050,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2085,7 +2071,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -2123,7 +2109,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2427,7 +2413,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>

--- a/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/_Out/NFDataCfg/Excel/Group.xlsx
@@ -37,10 +37,10 @@
     <t>MatchStar</t>
   </si>
   <si>
-    <t>MatchDeathHero</t>
-  </si>
-  <si>
-    <t>MatchKillHero</t>
+    <t>MatchKilledHero</t>
+  </si>
+  <si>
+    <t>MatchBeKilledHero</t>
   </si>
   <si>
     <t>MatchGambleDiamond</t>
@@ -148,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,22 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,24 +181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,55 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -291,7 +220,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,20 +317,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -345,13 +345,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,121 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +651,78 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,54 +744,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -728,177 +752,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/_Out/NFDataCfg/Excel/Group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowWidth="21000" windowHeight="8805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1-match" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>GUID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Streak</t>
   </si>
 </sst>
 </file>
@@ -147,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,15 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,25 +214,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,22 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -249,11 +236,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,24 +282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,7 +299,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +321,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,187 +369,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,39 +675,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,7 +698,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,17 +742,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,148 +781,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,15 +1367,17 @@
   <sheetPr/>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="9.33333333333333" customWidth="1"/>
-    <col min="3" max="10" width="19.125" customWidth="1"/>
+    <col min="3" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="22.875" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
@@ -2020,15 +2046,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2112,7 +2138,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2411,18 +2437,34 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2446,19 +2488,36 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2482,19 +2541,36 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:33">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2518,17 +2594,18 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 D11:F11 D12:F12 B6:B10 A4:B5 D8:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 F10 B6:B10 A4:B5 D8:F9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 C11 B12 C12 B13 C8:C9 A2:B3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J11:V11 W11:X11 J12:V12 H8:AF9">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9 A2:B3">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H11:U11 V11:W11 H12:U12 H8:AF9">
-      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/_Out/NFDataCfg/Excel/Group.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +164,33 @@
   </si>
   <si>
     <t>Streak</t>
+  </si>
+  <si>
+    <t>HeroCnf1</t>
+  </si>
+  <si>
+    <t>HeroCnf2</t>
+  </si>
+  <si>
+    <t>HeroCnf3</t>
+  </si>
+  <si>
+    <t>HeroStar1</t>
+  </si>
+  <si>
+    <t>HeroStar2</t>
+  </si>
+  <si>
+    <t>HeroStar3</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t>HP3</t>
   </si>
 </sst>
 </file>
@@ -171,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -198,9 +225,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,23 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,21 +270,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -282,8 +292,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,17 +332,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,23 +368,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,25 +396,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +534,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,145 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,17 +712,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +739,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -723,6 +776,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,192 +809,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +976,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1367,8 +1406,8 @@
   <sheetPr/>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W1" sqref="R1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1385,150 +1424,150 @@
     <col min="15" max="23" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:23">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:23">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:23">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:23">
+      <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:23">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:23">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="3">
@@ -1598,8 +1637,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:23">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:23">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="3">
@@ -1669,8 +1708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:23">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:23">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3">
@@ -1740,8 +1779,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:23">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:23">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3">
@@ -1811,224 +1850,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:23">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:23">
+      <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:23">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="10" customFormat="1" spans="1:23">
+      <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:23">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:23">
+      <c r="A9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A10" s="14" t="s">
+    <row r="10" s="11" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2049,12 +2088,15 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2138,7 +2180,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2176,7 +2218,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2214,7 +2256,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2290,7 +2332,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2399,7 +2441,7 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" ht="14.25" spans="1:32">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2465,15 +2507,33 @@
       <c r="I11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="J11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2518,15 +2578,33 @@
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2571,15 +2649,15 @@
       <c r="I13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -2598,10 +2676,10 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 F10 B6:B10 A4:B5 D8:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 A5 B5 A6 B6 B7 F10 B8:B10 D8:F9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J11:V11 W11:X11 J12:V12 H8:AF9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S11:V11 W11:X11 J12 K12 L12 M12 N12 O12 P12 Q12 R12 S12:V12 H8:AF9">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9 A2:B3">

--- a/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/_Out/NFDataCfg/Excel/Group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8805" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Property1-match" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -37,10 +37,10 @@
     <t>MatchStar</t>
   </si>
   <si>
-    <t>MatchKilledHero</t>
-  </si>
-  <si>
-    <t>MatchBeKilledHero</t>
+    <t>MatchOpponentK</t>
+  </si>
+  <si>
+    <t>MatchOpponentD</t>
   </si>
   <si>
     <t>MatchGambleDiamond</t>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>MatchOpponentHeroStar3</t>
+  </si>
+  <si>
+    <t>MatchOpponentHeroHP1</t>
+  </si>
+  <si>
+    <t>MatchOpponentHeroHP2</t>
+  </si>
+  <si>
+    <t>MatchOpponentHeroHP3</t>
   </si>
   <si>
     <t>Type</t>
@@ -198,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -222,42 +231,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,11 +257,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,9 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,15 +305,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -348,8 +334,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,8 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,187 +411,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,8 +724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,15 +735,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,13 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,6 +784,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -794,168 +818,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W1" sqref="R1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1416,15 +1425,16 @@
     <col min="2" max="2" width="9.33333333333333" customWidth="1"/>
     <col min="3" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="10" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="22.875" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
     <col min="14" max="14" width="21.625" customWidth="1"/>
-    <col min="15" max="23" width="25.375" customWidth="1"/>
+    <col min="15" max="26" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:23">
+    <row r="1" s="8" customFormat="1" spans="1:26">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1494,81 +1504,99 @@
       <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:23">
+    <row r="2" s="9" customFormat="1" spans="1:26">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:23">
+    <row r="3" s="9" customFormat="1" spans="1:26">
       <c r="A3" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1636,10 +1664,19 @@
       <c r="W3" s="3">
         <v>1</v>
       </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:23">
+    <row r="4" s="9" customFormat="1" spans="1:26">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1707,10 +1744,19 @@
       <c r="W4" s="3">
         <v>0</v>
       </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:23">
+    <row r="5" s="9" customFormat="1" spans="1:26">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1778,10 +1824,19 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:23">
+    <row r="6" s="9" customFormat="1" spans="1:26">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1849,10 +1904,19 @@
       <c r="W6" s="3">
         <v>0</v>
       </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:23">
+    <row r="7" s="10" customFormat="1" spans="1:26">
       <c r="A7" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -1920,10 +1984,19 @@
       <c r="W7" s="10">
         <v>0</v>
       </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:23">
+    <row r="8" s="10" customFormat="1" spans="1:26">
       <c r="A8" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -1991,10 +2064,19 @@
       <c r="W8" s="10">
         <v>0</v>
       </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:23">
+    <row r="9" s="10" customFormat="1" spans="1:26">
       <c r="A9" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -2060,19 +2142,28 @@
         <v>0</v>
       </c>
       <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A10" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9 C7:C9 D7:D9 E7:E9 F7:F9 G7:G9 H7:H9 I7:I9 J7:J9 K7:K9 L7:L9 M7:M9 N7:N9 O7:O9 P7:P9 Q7:Q9 R7:R9 S7:S9 T7:T9 U7:U9 V7:V9 W7:W9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9 C7:C9 D7:D9 E7:E9 F7:F9 G7:G9 H7:H9 I7:I9 J7:J9 K7:K9 L7:L9 M7:M9 N7:N9 O7:O9 P7:P9 Q7:Q9 R7:R9 S7:S9 T7:T9 U7:U9 V7:V9 W7:W9 X7:X9 Y7:Y9 Z7:Z9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2087,8 +2178,8 @@
   <sheetPr/>
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2104,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2139,7 +2230,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -2177,7 +2268,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>18</v>
@@ -2215,7 +2306,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2253,7 +2344,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2291,7 +2382,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2329,7 +2420,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2367,7 +2458,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2405,7 +2496,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2443,7 +2534,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:32">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -2481,58 +2572,58 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2552,58 +2643,58 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2623,31 +2714,31 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
